--- a/05. Bao cao - Phan tich ket qua/191103_BaoCao_PhanTichKetQua_Tuan1.xlsx
+++ b/05. Bao cao - Phan tich ket qua/191103_BaoCao_PhanTichKetQua_Tuan1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -355,23 +355,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -655,15 +655,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19:P20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" style="2" customWidth="1"/>
-    <col min="2" max="3" width="10.44140625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="10.140625" style="2" customWidth="1"/>
+    <col min="2" max="3" width="10.42578125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
@@ -672,951 +672,951 @@
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6" t="s">
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="7" t="s">
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="5" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5" t="s">
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5" t="s">
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="5" t="s">
+      <c r="C15" s="7"/>
+      <c r="D15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8" t="s">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="5" t="s">
+      <c r="C19" s="7"/>
+      <c r="D19" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
       <c r="M33" s="3"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="8"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="8"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D63" s="4"/>
@@ -3510,6 +3510,16 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="S10:Z14"/>
+    <mergeCell ref="K3:R3"/>
+    <mergeCell ref="S3:Z3"/>
+    <mergeCell ref="K4:R9"/>
+    <mergeCell ref="S4:Z9"/>
+    <mergeCell ref="D19:J62"/>
+    <mergeCell ref="B15:C18"/>
+    <mergeCell ref="B19:C62"/>
+    <mergeCell ref="A15:A62"/>
+    <mergeCell ref="K10:R14"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A4:A14"/>
     <mergeCell ref="B4:C14"/>
@@ -3517,16 +3527,6 @@
     <mergeCell ref="D15:J18"/>
     <mergeCell ref="D3:J3"/>
     <mergeCell ref="D4:J9"/>
-    <mergeCell ref="D19:J62"/>
-    <mergeCell ref="B15:C18"/>
-    <mergeCell ref="B19:C62"/>
-    <mergeCell ref="A15:A62"/>
-    <mergeCell ref="K10:R14"/>
-    <mergeCell ref="S10:Z14"/>
-    <mergeCell ref="K3:R3"/>
-    <mergeCell ref="S3:Z3"/>
-    <mergeCell ref="K4:R9"/>
-    <mergeCell ref="S4:Z9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
